--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9920,6 +9920,39 @@
       <c r="I325" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>357.6242857142857</v>
+      </c>
+      <c r="C326" t="n">
+        <v>361.1142857142857</v>
+      </c>
+      <c r="D326" t="n">
+        <v>354.81</v>
+      </c>
+      <c r="E326" t="n">
+        <v>355.8742857142857</v>
+      </c>
+      <c r="F326" t="n">
+        <v>351.5466666666667</v>
+      </c>
+      <c r="G326" t="n">
+        <v>366.9769230769231</v>
+      </c>
+      <c r="H326" t="n">
+        <v>375.51</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9934,7 +9967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13532,6 +13565,16 @@
       </c>
       <c r="B359" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -13694,28 +13737,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4147082436763479</v>
+        <v>0.4893497423908301</v>
       </c>
       <c r="J2" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00109241845762309</v>
+        <v>0.001527879123759179</v>
       </c>
       <c r="M2" t="n">
-        <v>85.17853535876455</v>
+        <v>85.07183659414351</v>
       </c>
       <c r="N2" t="n">
-        <v>7847.913077846093</v>
+        <v>7837.58169423018</v>
       </c>
       <c r="O2" t="n">
-        <v>88.5884477674493</v>
+        <v>88.53011744163778</v>
       </c>
       <c r="P2" t="n">
-        <v>269.7231098934981</v>
+        <v>268.9112733231642</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -13771,28 +13814,28 @@
         <v>0.1099</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.492430961660847</v>
+        <v>-1.448959661483416</v>
       </c>
       <c r="J3" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02286797997535495</v>
+        <v>0.02170258743750542</v>
       </c>
       <c r="M3" t="n">
-        <v>43.80836242309287</v>
+        <v>43.65544822202869</v>
       </c>
       <c r="N3" t="n">
-        <v>4667.856556258608</v>
+        <v>4656.650706097431</v>
       </c>
       <c r="O3" t="n">
-        <v>68.32171365136129</v>
+        <v>68.23965640371756</v>
       </c>
       <c r="P3" t="n">
-        <v>350.2738498567156</v>
+        <v>349.794676405275</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -13848,28 +13891,28 @@
         <v>0.0607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7148988639782478</v>
+        <v>0.7190630570095237</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08226465533960303</v>
+        <v>0.0837209353336662</v>
       </c>
       <c r="M4" t="n">
-        <v>12.3006840718729</v>
+        <v>12.26444050921144</v>
       </c>
       <c r="N4" t="n">
-        <v>293.9966956764404</v>
+        <v>292.7733791905766</v>
       </c>
       <c r="O4" t="n">
-        <v>17.14633184317977</v>
+        <v>17.11062182360935</v>
       </c>
       <c r="P4" t="n">
-        <v>331.5658916128857</v>
+        <v>331.5218686824103</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -13925,28 +13968,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9328201506449363</v>
+        <v>0.9408756463397624</v>
       </c>
       <c r="J5" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1375169422247782</v>
+        <v>0.1401763107806057</v>
       </c>
       <c r="M5" t="n">
-        <v>12.34383688866818</v>
+        <v>12.33190558444061</v>
       </c>
       <c r="N5" t="n">
-        <v>280.8721988593288</v>
+        <v>280.3033643463492</v>
       </c>
       <c r="O5" t="n">
-        <v>16.75924219227495</v>
+        <v>16.74226282037016</v>
       </c>
       <c r="P5" t="n">
-        <v>320.624160552974</v>
+        <v>320.5394677345328</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14002,28 +14045,28 @@
         <v>0.1234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8610580022049548</v>
+        <v>0.857586161187987</v>
       </c>
       <c r="J6" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K6" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2397588644099526</v>
+        <v>0.2393773034494353</v>
       </c>
       <c r="M6" t="n">
-        <v>8.174164325074576</v>
+        <v>8.160768533396784</v>
       </c>
       <c r="N6" t="n">
-        <v>118.1268068884997</v>
+        <v>117.7621828748774</v>
       </c>
       <c r="O6" t="n">
-        <v>10.86861568409242</v>
+        <v>10.85182854982871</v>
       </c>
       <c r="P6" t="n">
-        <v>334.4493273435275</v>
+        <v>334.4866402358578</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14073,28 +14116,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.8125720351842842</v>
+        <v>0.8136402236185858</v>
       </c>
       <c r="J7" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K7" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2392059771141362</v>
+        <v>0.2408391762724781</v>
       </c>
       <c r="M7" t="n">
-        <v>7.905207224324314</v>
+        <v>7.881351011413432</v>
       </c>
       <c r="N7" t="n">
-        <v>106.0381304255046</v>
+        <v>105.6601128700825</v>
       </c>
       <c r="O7" t="n">
-        <v>10.29748175164708</v>
+        <v>10.27911050967361</v>
       </c>
       <c r="P7" t="n">
-        <v>344.6837309618421</v>
+        <v>344.6722918839517</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14150,28 +14193,28 @@
         <v>0.0473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5916753158870142</v>
+        <v>0.5990044158587751</v>
       </c>
       <c r="J8" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1056360165949348</v>
+        <v>0.1084756032683925</v>
       </c>
       <c r="M8" t="n">
-        <v>9.554657367857194</v>
+        <v>9.551140242007682</v>
       </c>
       <c r="N8" t="n">
-        <v>150.4885264669375</v>
+        <v>150.2113625485629</v>
       </c>
       <c r="O8" t="n">
-        <v>12.26737651117538</v>
+        <v>12.25607451627816</v>
       </c>
       <c r="P8" t="n">
-        <v>351.1320117756154</v>
+        <v>351.0538928845116</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -14208,7 +14251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26987,6 +27030,53 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-45.80969336701227,170.74407298786542</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-45.81027650443328,170.743756774135</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-45.810827840987415,170.74336484897373</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-45.81143292530321,170.74315137341125</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-45.812007484390826,170.74279079508048</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-45.81262603551246,170.74277792669258</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-45.81323774956643,170.74279499988717</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -13588,7 +13588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13679,35 +13679,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -13760,27 +13765,28 @@
       <c r="P2" t="n">
         <v>268.9112733231642</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.73989238021304 -45.80834969377647, 170.75016896094397 -45.81165226392697)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.739892380213</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.80834969377647</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.750168960944</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.81165226392697</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.7450306705785</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.81000097885172</v>
       </c>
     </row>
@@ -13837,27 +13843,28 @@
       <c r="P3" t="n">
         <v>349.794676405275</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.73949456904052 -45.80898353165123, 170.74987058871906 -45.812130798254955)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.7394945690405</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.80898353165123</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.7498705887191</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.81213079825496</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.7446825788798</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.8105571649531</v>
       </c>
     </row>
@@ -13914,27 +13921,28 @@
       <c r="P4" t="n">
         <v>331.5218686824103</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.73904899507525 -45.8097878552416, 170.74974277357927 -45.81236435442)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.7390489950753</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.8097878552416</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.7497427735793</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.81236435442</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.7443958843273</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.8110761048308</v>
       </c>
     </row>
@@ -13991,27 +13999,28 @@
       <c r="P5" t="n">
         <v>320.5394677345328</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.73880902729206 -45.81041762930153, 170.7495362861108 -45.812925435159336)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.7388090272921</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.81041762930153</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.7495362861108</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.81292543515934</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.7441726567014</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.81167153223043</v>
       </c>
     </row>
@@ -14068,27 +14077,28 @@
       <c r="P6" t="n">
         <v>334.4866402358578</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.7384905256984 -45.81102716323081, 170.74924462319922 -45.81347838081874)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.7384905256984</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.81102716323081</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.7492446231992</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.81347838081874</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.7438675744488</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.81225277202478</v>
       </c>
     </row>
@@ -14139,27 +14149,28 @@
       <c r="P7" t="n">
         <v>344.6722918839517</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.7381448677837 -45.81198964790304, 170.74924453616012 -45.81351393895539)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.7381448677837</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.81198964790304</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.7492445361601</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.81351393895539</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.7436947019719</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.81275179342921</v>
       </c>
     </row>
@@ -14216,27 +14227,28 @@
       <c r="P8" t="n">
         <v>351.0538928845116</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.73800267664703 -45.81280869885601, 170.74922313266003 -45.81381292710835)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.738002676647</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.81280869885601</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.74922313266</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.81381292710835</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.7436129046535</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.81331081298218</v>
       </c>
     </row>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9951,6 +9951,105 @@
         <v>375.51</v>
       </c>
       <c r="I326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>362.5628571428572</v>
+      </c>
+      <c r="C327" t="n">
+        <v>364.2328571428571</v>
+      </c>
+      <c r="D327" t="n">
+        <v>353.9136363636364</v>
+      </c>
+      <c r="E327" t="n">
+        <v>345.8228571428572</v>
+      </c>
+      <c r="F327" t="n">
+        <v>351.6577777777778</v>
+      </c>
+      <c r="G327" t="n">
+        <v>359.4130769230769</v>
+      </c>
+      <c r="H327" t="n">
+        <v>366.98</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>327.4728571428572</v>
+      </c>
+      <c r="C328" t="n">
+        <v>340.9728571428572</v>
+      </c>
+      <c r="D328" t="n">
+        <v>339.9427272727273</v>
+      </c>
+      <c r="E328" t="n">
+        <v>325.9928571428572</v>
+      </c>
+      <c r="F328" t="n">
+        <v>339.3322222222222</v>
+      </c>
+      <c r="G328" t="n">
+        <v>340.2015384615385</v>
+      </c>
+      <c r="H328" t="n">
+        <v>350.84</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>340.46</v>
+      </c>
+      <c r="C329" t="n">
+        <v>365.79</v>
+      </c>
+      <c r="D329" t="n">
+        <v>355.5281818181818</v>
+      </c>
+      <c r="E329" t="n">
+        <v>348.27</v>
+      </c>
+      <c r="F329" t="n">
+        <v>359.5877777777778</v>
+      </c>
+      <c r="G329" t="n">
+        <v>367.1046153846154</v>
+      </c>
+      <c r="H329" t="n">
+        <v>369.48</v>
+      </c>
+      <c r="I329" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9967,7 +10066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13575,6 +13674,36 @@
       </c>
       <c r="B360" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13742,28 +13871,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4893497423908301</v>
+        <v>0.6635026539465271</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001527879123759179</v>
+        <v>0.002857273255946424</v>
       </c>
       <c r="M2" t="n">
-        <v>85.07183659414351</v>
+        <v>84.53003172182775</v>
       </c>
       <c r="N2" t="n">
-        <v>7837.58169423018</v>
+        <v>7776.108791231472</v>
       </c>
       <c r="O2" t="n">
-        <v>88.53011744163778</v>
+        <v>88.18224759684611</v>
       </c>
       <c r="P2" t="n">
-        <v>268.9112733231642</v>
+        <v>267.0070594272827</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13820,28 +13949,28 @@
         <v>0.1099</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.448959661483416</v>
+        <v>-1.333981497304814</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02170258743750542</v>
+        <v>0.01877866273509199</v>
       </c>
       <c r="M3" t="n">
-        <v>43.65544822202869</v>
+        <v>43.18243661356411</v>
       </c>
       <c r="N3" t="n">
-        <v>4656.650706097431</v>
+        <v>4618.756107645799</v>
       </c>
       <c r="O3" t="n">
-        <v>68.23965640371756</v>
+        <v>67.96143103000259</v>
       </c>
       <c r="P3" t="n">
-        <v>349.794676405275</v>
+        <v>348.5203258829927</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13898,28 +14027,28 @@
         <v>0.0607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7190630570095237</v>
+        <v>0.7187358161733414</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0837209353336662</v>
+        <v>0.08528656668833712</v>
       </c>
       <c r="M4" t="n">
-        <v>12.26444050921144</v>
+        <v>12.18751787635043</v>
       </c>
       <c r="N4" t="n">
-        <v>292.7733791905766</v>
+        <v>289.4940552980655</v>
       </c>
       <c r="O4" t="n">
-        <v>17.11062182360935</v>
+        <v>17.01452483315551</v>
       </c>
       <c r="P4" t="n">
-        <v>331.5218686824103</v>
+        <v>331.525374266191</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13976,28 +14105,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9408756463397624</v>
+        <v>0.9313885801484886</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1401763107806057</v>
+        <v>0.1395916783431637</v>
       </c>
       <c r="M5" t="n">
-        <v>12.33190558444061</v>
+        <v>12.29196989862793</v>
       </c>
       <c r="N5" t="n">
-        <v>280.3033643463492</v>
+        <v>278.5089269206312</v>
       </c>
       <c r="O5" t="n">
-        <v>16.74226282037016</v>
+        <v>16.68858672628186</v>
       </c>
       <c r="P5" t="n">
-        <v>320.5394677345328</v>
+        <v>320.6397773397214</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14054,28 +14183,28 @@
         <v>0.1234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.857586161187987</v>
+        <v>0.8444728985078908</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2393773034494353</v>
+        <v>0.2355454265364422</v>
       </c>
       <c r="M6" t="n">
-        <v>8.160768533396784</v>
+        <v>8.160912801399141</v>
       </c>
       <c r="N6" t="n">
-        <v>117.7621828748774</v>
+        <v>117.6413867962378</v>
       </c>
       <c r="O6" t="n">
-        <v>10.85182854982871</v>
+        <v>10.84626142024236</v>
       </c>
       <c r="P6" t="n">
-        <v>334.4866402358578</v>
+        <v>334.6282767653001</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14126,28 +14255,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.8136402236185858</v>
+        <v>0.7938564411616853</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K7" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2408391762724781</v>
+        <v>0.2312805536641765</v>
       </c>
       <c r="M7" t="n">
-        <v>7.881351011413432</v>
+        <v>7.928791323238482</v>
       </c>
       <c r="N7" t="n">
-        <v>105.6601128700825</v>
+        <v>106.9371237199458</v>
       </c>
       <c r="O7" t="n">
-        <v>10.27911050967361</v>
+        <v>10.34104074645999</v>
       </c>
       <c r="P7" t="n">
-        <v>344.6722918839517</v>
+        <v>344.8852684983481</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14204,28 +14333,28 @@
         <v>0.0473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5990044158587751</v>
+        <v>0.5898709950838706</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1084756032683925</v>
+        <v>0.1069851872762003</v>
       </c>
       <c r="M8" t="n">
-        <v>9.551140242007682</v>
+        <v>9.51509656767581</v>
       </c>
       <c r="N8" t="n">
-        <v>150.2113625485629</v>
+        <v>149.3686218370407</v>
       </c>
       <c r="O8" t="n">
-        <v>12.25607451627816</v>
+        <v>12.22164562720752</v>
       </c>
       <c r="P8" t="n">
-        <v>351.0538928845116</v>
+        <v>351.151791988547</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14263,7 +14392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27089,6 +27218,147 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-45.80971192126599,170.74413072092653</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-45.81028766982685,170.74379358328318</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-45.81082521385249,170.74335394553577</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-45.811404251182275,170.74302872453708</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-45.812007794209485,170.74279215426392</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-45.812612920658644,170.7426824325091</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-45.81322800556556,170.7426861376577</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-45.809580087226855,170.74372051142785</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-45.810204391976015,170.74351904102167</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-45.81078426665191,170.7431840024329</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-45.811347680951286,170.74278675661057</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-45.81197342592734,170.74264138014</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-45.81257960966825,170.74243988546152</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-45.813209568217324,170.74248015460898</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-45.80962888042695,170.7438723336352</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-45.81029324484721,170.74381196257028</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-45.81082994589193,170.74337358499477</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-45.811411232258614,170.74305858488913</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-45.8120299059269,170.7428891592266</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-45.81262625691579,170.74277953881892</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-45.81323086137954,170.7427180433478</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10050,6 +10050,66 @@
         <v>369.48</v>
       </c>
       <c r="I329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>186.5328571428572</v>
+      </c>
+      <c r="C330" t="n">
+        <v>329.7328571428571</v>
+      </c>
+      <c r="D330" t="n">
+        <v>341.9436363636364</v>
+      </c>
+      <c r="E330" t="n">
+        <v>351.1028571428571</v>
+      </c>
+      <c r="F330" t="n">
+        <v>351.9833333333333</v>
+      </c>
+      <c r="G330" t="n">
+        <v>369.1892307692308</v>
+      </c>
+      <c r="H330" t="n">
+        <v>379.63</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>163.0428571428571</v>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="n">
+        <v>336.6628571428571</v>
+      </c>
+      <c r="F331" t="n">
+        <v>365.7733333333333</v>
+      </c>
+      <c r="G331" t="n">
+        <v>367.6046153846154</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10066,7 +10126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B363"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13704,6 +13764,26 @@
       </c>
       <c r="B363" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13871,28 +13951,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.6635026539465271</v>
+        <v>0.4616251789472751</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K2" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002857273255946424</v>
+        <v>0.001387259877139724</v>
       </c>
       <c r="M2" t="n">
-        <v>84.53003172182775</v>
+        <v>84.96211832517855</v>
       </c>
       <c r="N2" t="n">
-        <v>7776.108791231472</v>
+        <v>7817.155847593181</v>
       </c>
       <c r="O2" t="n">
-        <v>88.18224759684611</v>
+        <v>88.41468117678862</v>
       </c>
       <c r="P2" t="n">
-        <v>267.0070594272827</v>
+        <v>269.2310179289905</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13949,28 +14029,28 @@
         <v>0.1099</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.333981497304814</v>
+        <v>-1.320609643505694</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01877866273509199</v>
+        <v>0.01854928737517003</v>
       </c>
       <c r="M3" t="n">
-        <v>43.18243661356411</v>
+        <v>42.99476731333022</v>
       </c>
       <c r="N3" t="n">
-        <v>4618.756107645799</v>
+        <v>4597.889543958789</v>
       </c>
       <c r="O3" t="n">
-        <v>67.96143103000259</v>
+        <v>67.80773955795009</v>
       </c>
       <c r="P3" t="n">
-        <v>348.5203258829927</v>
+        <v>348.3713396902643</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14027,28 +14107,28 @@
         <v>0.0607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7187358161733414</v>
+        <v>0.7122441652567156</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K4" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08528656668833712</v>
+        <v>0.0843989377879526</v>
       </c>
       <c r="M4" t="n">
-        <v>12.18751787635043</v>
+        <v>12.17374066370394</v>
       </c>
       <c r="N4" t="n">
-        <v>289.4940552980655</v>
+        <v>288.4872880339081</v>
       </c>
       <c r="O4" t="n">
-        <v>17.01452483315551</v>
+        <v>16.98491354213816</v>
       </c>
       <c r="P4" t="n">
-        <v>331.525374266191</v>
+        <v>331.5947424172573</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14105,28 +14185,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9313885801484886</v>
+        <v>0.9303762749437562</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1395916783431637</v>
+        <v>0.1407702958923938</v>
       </c>
       <c r="M5" t="n">
-        <v>12.29196989862793</v>
+        <v>12.25567959501562</v>
       </c>
       <c r="N5" t="n">
-        <v>278.5089269206312</v>
+        <v>276.8390376420795</v>
       </c>
       <c r="O5" t="n">
-        <v>16.68858672628186</v>
+        <v>16.63848062901416</v>
       </c>
       <c r="P5" t="n">
-        <v>320.6397773397214</v>
+        <v>320.650732419496</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14183,28 +14263,28 @@
         <v>0.1234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8444728985078908</v>
+        <v>0.848019069881958</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K6" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2355454265364422</v>
+        <v>0.2388421080022087</v>
       </c>
       <c r="M6" t="n">
-        <v>8.160912801399141</v>
+        <v>8.15131066669662</v>
       </c>
       <c r="N6" t="n">
-        <v>117.6413867962378</v>
+        <v>117.1566000922629</v>
       </c>
       <c r="O6" t="n">
-        <v>10.84626142024236</v>
+        <v>10.82389024760797</v>
       </c>
       <c r="P6" t="n">
-        <v>334.6282767653001</v>
+        <v>334.5895192481306</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14255,28 +14335,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.7938564411616853</v>
+        <v>0.7979334862805912</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2312805536641765</v>
+        <v>0.2352562595876182</v>
       </c>
       <c r="M7" t="n">
-        <v>7.928791323238482</v>
+        <v>7.890765061287914</v>
       </c>
       <c r="N7" t="n">
-        <v>106.9371237199458</v>
+        <v>106.2424438438859</v>
       </c>
       <c r="O7" t="n">
-        <v>10.34104074645999</v>
+        <v>10.30739753011816</v>
       </c>
       <c r="P7" t="n">
-        <v>344.8852684983481</v>
+        <v>344.8410950343322</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14333,28 +14413,28 @@
         <v>0.0473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5898709950838706</v>
+        <v>0.6001115581106553</v>
       </c>
       <c r="J8" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K8" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1069851872762003</v>
+        <v>0.1105563156578594</v>
       </c>
       <c r="M8" t="n">
-        <v>9.51509656767581</v>
+        <v>9.526514675999934</v>
       </c>
       <c r="N8" t="n">
-        <v>149.3686218370407</v>
+        <v>149.4778457111555</v>
       </c>
       <c r="O8" t="n">
-        <v>12.22164562720752</v>
+        <v>12.22611327082959</v>
       </c>
       <c r="P8" t="n">
-        <v>351.151791988547</v>
+        <v>351.0414913301818</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14392,7 +14472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27359,6 +27439,88 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-45.8090505574844,170.74207291307303</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-45.810164149137336,170.7433863734369</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-45.81079013111199,170.74320834161344</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-45.811419313670136,170.74309315178616</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-45.81200870197811,170.7427961366715</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-45.81262987138885,170.74280585726925</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-45.81324245589336,170.74284758048663</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-45.80896230026827,170.7417983164551</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-45.81137811996323,170.74291695310703</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-45.81204715344396,170.74296482505562</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-45.81262712385637,170.74278585136204</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10097,8 +10097,12 @@
       <c r="B331" t="n">
         <v>163.0428571428571</v>
       </c>
-      <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr"/>
+      <c r="C331" t="n">
+        <v>121.9628571428571</v>
+      </c>
+      <c r="D331" t="n">
+        <v>293.0745454545454</v>
+      </c>
       <c r="E331" t="n">
         <v>336.6628571428571</v>
       </c>
@@ -10108,8 +10112,41 @@
       <c r="G331" t="n">
         <v>367.6046153846154</v>
       </c>
-      <c r="H331" t="inlineStr"/>
+      <c r="H331" t="n">
+        <v>442.26</v>
+      </c>
       <c r="I331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>151.4442857142857</v>
+      </c>
+      <c r="C332" t="n">
+        <v>103.1242857142857</v>
+      </c>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="n">
+        <v>296.7642857142857</v>
+      </c>
+      <c r="F332" t="n">
+        <v>340.4511111111111</v>
+      </c>
+      <c r="G332" t="n">
+        <v>358.8507692307692</v>
+      </c>
+      <c r="H332" t="n">
+        <v>448.53</v>
+      </c>
+      <c r="I332" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10126,7 +10163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13784,6 +13821,16 @@
       </c>
       <c r="B365" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -13951,28 +13998,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.4616251789472751</v>
+        <v>0.3425113664840558</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001387259877139724</v>
+        <v>0.0007623616412550938</v>
       </c>
       <c r="M2" t="n">
-        <v>84.96211832517855</v>
+        <v>85.28899827875158</v>
       </c>
       <c r="N2" t="n">
-        <v>7817.155847593181</v>
+        <v>7862.163651830765</v>
       </c>
       <c r="O2" t="n">
-        <v>88.41468117678862</v>
+        <v>88.66884262146858</v>
       </c>
       <c r="P2" t="n">
-        <v>269.2310179289905</v>
+        <v>270.5485019816469</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14029,28 +14076,28 @@
         <v>0.1099</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.320609643505694</v>
+        <v>-1.663789961306494</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01854928737517003</v>
+        <v>0.02738050638619549</v>
       </c>
       <c r="M3" t="n">
-        <v>42.99476731333022</v>
+        <v>45.88510170166646</v>
       </c>
       <c r="N3" t="n">
-        <v>4597.889543958789</v>
+        <v>4929.933496566736</v>
       </c>
       <c r="O3" t="n">
-        <v>67.80773955795009</v>
+        <v>70.21348514756076</v>
       </c>
       <c r="P3" t="n">
-        <v>348.3713396902643</v>
+        <v>352.2133655540582</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14107,28 +14154,28 @@
         <v>0.0607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7122441652567156</v>
+        <v>0.6666112592018082</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0843989377879526</v>
+        <v>0.07195596581838726</v>
       </c>
       <c r="M4" t="n">
-        <v>12.17374066370394</v>
+        <v>12.40771282867469</v>
       </c>
       <c r="N4" t="n">
-        <v>288.4872880339081</v>
+        <v>301.4039055366659</v>
       </c>
       <c r="O4" t="n">
-        <v>16.98491354213816</v>
+        <v>17.36098803457527</v>
       </c>
       <c r="P4" t="n">
-        <v>331.5947424172573</v>
+        <v>332.0841040398243</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14185,28 +14232,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9303762749437562</v>
+        <v>0.8977610906665273</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1407702958923938</v>
+        <v>0.1297080638982318</v>
       </c>
       <c r="M5" t="n">
-        <v>12.25567959501562</v>
+        <v>12.42090810121546</v>
       </c>
       <c r="N5" t="n">
-        <v>276.8390376420795</v>
+        <v>284.1938305715984</v>
       </c>
       <c r="O5" t="n">
-        <v>16.63848062901416</v>
+        <v>16.85804942962259</v>
       </c>
       <c r="P5" t="n">
-        <v>320.650732419496</v>
+        <v>320.9991982233915</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14263,28 +14310,28 @@
         <v>0.1234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.848019069881958</v>
+        <v>0.8369064893082903</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K6" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2388421080022087</v>
+        <v>0.2338036906110649</v>
       </c>
       <c r="M6" t="n">
-        <v>8.15131066669662</v>
+        <v>8.181304656265111</v>
       </c>
       <c r="N6" t="n">
-        <v>117.1566000922629</v>
+        <v>117.670846659087</v>
       </c>
       <c r="O6" t="n">
-        <v>10.82389024760797</v>
+        <v>10.84761940054531</v>
       </c>
       <c r="P6" t="n">
-        <v>334.5895192481306</v>
+        <v>334.7108934451739</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14335,28 +14382,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.7979334862805912</v>
+        <v>0.7935973370057884</v>
       </c>
       <c r="J7" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2352562595876182</v>
+        <v>0.2341716763660854</v>
       </c>
       <c r="M7" t="n">
-        <v>7.890765061287914</v>
+        <v>7.889365280772792</v>
       </c>
       <c r="N7" t="n">
-        <v>106.2424438438859</v>
+        <v>106.0160327436788</v>
       </c>
       <c r="O7" t="n">
-        <v>10.30739753011816</v>
+        <v>10.29640873041075</v>
       </c>
       <c r="P7" t="n">
-        <v>344.8410950343322</v>
+        <v>344.8882867188157</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14413,28 +14460,28 @@
         <v>0.0473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6001115581106553</v>
+        <v>0.7197300925008724</v>
       </c>
       <c r="J8" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K8" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1105563156578594</v>
+        <v>0.1191657590367156</v>
       </c>
       <c r="M8" t="n">
-        <v>9.526514675999934</v>
+        <v>10.05848128668802</v>
       </c>
       <c r="N8" t="n">
-        <v>149.4778457111555</v>
+        <v>198.7859211907583</v>
       </c>
       <c r="O8" t="n">
-        <v>12.22611327082959</v>
+        <v>14.09914611566099</v>
       </c>
       <c r="P8" t="n">
-        <v>351.0414913301818</v>
+        <v>349.7470612174103</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14472,7 +14519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27497,8 +27544,16 @@
           <t>-45.80896230026827,170.7417983164551</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-45.809420238113155,170.74093406495732</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-45.810646899341386,170.74261389651605</t>
+        </is>
+      </c>
       <c r="E331" t="inlineStr">
         <is>
           <t>-45.81137811996323,170.74291695310703</t>
@@ -27514,8 +27569,55 @@
           <t>-45.81262712385637,170.74278585136204</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-45.813313995954594,170.7436468833759</t>
+        </is>
+      </c>
       <c r="I331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-45.808918721587276,170.7416627302143</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-45.809352784917664,170.74071171668584</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-45.811264297932425,170.742430107167</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-45.81197654581825,170.74265506710063</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-45.81261194567754,170.74267533332988</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-45.81332115765051,170.74372690312535</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10133,7 +10133,9 @@
       <c r="C332" t="n">
         <v>103.1242857142857</v>
       </c>
-      <c r="D332" t="inlineStr"/>
+      <c r="D332" t="n">
+        <v>75.78</v>
+      </c>
       <c r="E332" t="n">
         <v>296.7642857142857</v>
       </c>
@@ -10147,6 +10149,72 @@
         <v>448.53</v>
       </c>
       <c r="I332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>166.9885714285714</v>
+      </c>
+      <c r="C333" t="n">
+        <v>127.5385714285714</v>
+      </c>
+      <c r="D333" t="n">
+        <v>98.37090909090909</v>
+      </c>
+      <c r="E333" t="n">
+        <v>300.9985714285714</v>
+      </c>
+      <c r="F333" t="n">
+        <v>333.0288888888889</v>
+      </c>
+      <c r="G333" t="n">
+        <v>365.7653846153846</v>
+      </c>
+      <c r="H333" t="n">
+        <v>463.9</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>164.4285714285714</v>
+      </c>
+      <c r="C334" t="n">
+        <v>121.8685714285714</v>
+      </c>
+      <c r="D334" t="n">
+        <v>93.69090909090907</v>
+      </c>
+      <c r="E334" t="n">
+        <v>296.9685714285715</v>
+      </c>
+      <c r="F334" t="n">
+        <v>329.1388888888889</v>
+      </c>
+      <c r="G334" t="n">
+        <v>358.6453846153846</v>
+      </c>
+      <c r="H334" t="n">
+        <v>448.65</v>
+      </c>
+      <c r="I334" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10163,7 +10231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13831,6 +13899,26 @@
       </c>
       <c r="B366" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -13998,28 +14086,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3425113664840558</v>
+        <v>0.1384855219355614</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K2" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007623616412550938</v>
+        <v>0.000124751855929639</v>
       </c>
       <c r="M2" t="n">
-        <v>85.28899827875158</v>
+        <v>85.71145347459409</v>
       </c>
       <c r="N2" t="n">
-        <v>7862.163651830765</v>
+        <v>7910.106181823981</v>
       </c>
       <c r="O2" t="n">
-        <v>88.66884262146858</v>
+        <v>88.93877771716892</v>
       </c>
       <c r="P2" t="n">
-        <v>270.5485019816469</v>
+        <v>272.809262484174</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14076,28 +14164,28 @@
         <v>0.1099</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.663789961306494</v>
+        <v>-1.971797042534133</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K3" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02738050638619549</v>
+        <v>0.03637500082049183</v>
       </c>
       <c r="M3" t="n">
-        <v>45.88510170166646</v>
+        <v>48.40848550887991</v>
       </c>
       <c r="N3" t="n">
-        <v>4929.933496566736</v>
+        <v>5194.40079481726</v>
       </c>
       <c r="O3" t="n">
-        <v>70.21348514756076</v>
+        <v>72.07219154998175</v>
       </c>
       <c r="P3" t="n">
-        <v>352.2133655540582</v>
+        <v>355.671744482142</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14154,28 +14242,28 @@
         <v>0.0607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6666112592018082</v>
+        <v>0.05854870979169094</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07195596581838726</v>
+        <v>0.0001572621938268348</v>
       </c>
       <c r="M4" t="n">
-        <v>12.40771282867469</v>
+        <v>16.82762268770893</v>
       </c>
       <c r="N4" t="n">
-        <v>301.4039055366659</v>
+        <v>1156.944745300768</v>
       </c>
       <c r="O4" t="n">
-        <v>17.36098803457527</v>
+        <v>34.01389047581544</v>
       </c>
       <c r="P4" t="n">
-        <v>332.0841040398243</v>
+        <v>338.6278539792644</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14232,28 +14320,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8977610906665273</v>
+        <v>0.8372250479859524</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K5" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1297080638982318</v>
+        <v>0.110972839291431</v>
       </c>
       <c r="M5" t="n">
-        <v>12.42090810121546</v>
+        <v>12.72390705417909</v>
       </c>
       <c r="N5" t="n">
-        <v>284.1938305715984</v>
+        <v>296.8115642277454</v>
       </c>
       <c r="O5" t="n">
-        <v>16.85804942962259</v>
+        <v>17.2282199959179</v>
       </c>
       <c r="P5" t="n">
-        <v>320.9991982233915</v>
+        <v>321.6470990591606</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14310,28 +14398,28 @@
         <v>0.1234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8369064893082903</v>
+        <v>0.8024652749747243</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K6" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2338036906110649</v>
+        <v>0.2146140147330144</v>
       </c>
       <c r="M6" t="n">
-        <v>8.181304656265111</v>
+        <v>8.312334841972392</v>
       </c>
       <c r="N6" t="n">
-        <v>117.670846659087</v>
+        <v>121.4817097982169</v>
       </c>
       <c r="O6" t="n">
-        <v>10.84761940054531</v>
+        <v>11.02187415089725</v>
       </c>
       <c r="P6" t="n">
-        <v>334.7108934451739</v>
+        <v>335.0877313086251</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14382,28 +14470,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.7935973370057884</v>
+        <v>0.7894602003194042</v>
       </c>
       <c r="J7" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2341716763660854</v>
+        <v>0.2342547712609635</v>
       </c>
       <c r="M7" t="n">
-        <v>7.889365280772792</v>
+        <v>7.862108280330218</v>
       </c>
       <c r="N7" t="n">
-        <v>106.0160327436788</v>
+        <v>105.425017151972</v>
       </c>
       <c r="O7" t="n">
-        <v>10.29640873041075</v>
+        <v>10.26766853535758</v>
       </c>
       <c r="P7" t="n">
-        <v>344.8882867188157</v>
+        <v>344.9334190212502</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14460,28 +14548,28 @@
         <v>0.0473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7197300925008724</v>
+        <v>0.8508228812584344</v>
       </c>
       <c r="J8" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K8" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1191657590367156</v>
+        <v>0.1270264737555067</v>
       </c>
       <c r="M8" t="n">
-        <v>10.05848128668802</v>
+        <v>10.71905207204984</v>
       </c>
       <c r="N8" t="n">
-        <v>198.7859211907583</v>
+        <v>259.8492230492297</v>
       </c>
       <c r="O8" t="n">
-        <v>14.09914611566099</v>
+        <v>16.11983942380413</v>
       </c>
       <c r="P8" t="n">
-        <v>349.7470612174103</v>
+        <v>348.32448481877</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14519,7 +14607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27596,7 +27684,11 @@
           <t>-45.809352784917664,170.74071171668584</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-45.81000998792229,170.73997075729696</t>
+        </is>
+      </c>
       <c r="E332" t="inlineStr">
         <is>
           <t>-45.811264297932425,170.742430107167</t>
@@ -27618,6 +27710,100 @@
         </is>
       </c>
       <c r="I332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-45.808977125249875,170.7418444415441</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-45.809440202377246,170.74099987421613</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-45.810076206871614,170.7402455469218</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-45.81127637753438,170.7424817742028</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-45.81195584978887,170.7425642737864</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-45.81262393484708,170.74276263091605</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-45.81333871327868,170.74392306008693</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-45.80896750672659,170.741814515343</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-45.80941990051574,170.74093295211858</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-45.81006248881024,170.74018862062948</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-45.81126488072076,170.7424325998743</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-45.81194500293434,170.74251668887516</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-45.81261158956258,170.74267274033286</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-45.81332129471591,170.743728434604</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10100,9 +10100,7 @@
       <c r="C331" t="n">
         <v>121.9628571428571</v>
       </c>
-      <c r="D331" t="n">
-        <v>293.0745454545454</v>
-      </c>
+      <c r="D331" t="inlineStr"/>
       <c r="E331" t="n">
         <v>336.6628571428571</v>
       </c>
@@ -10133,9 +10131,7 @@
       <c r="C332" t="n">
         <v>103.1242857142857</v>
       </c>
-      <c r="D332" t="n">
-        <v>75.78</v>
-      </c>
+      <c r="D332" t="inlineStr"/>
       <c r="E332" t="n">
         <v>296.7642857142857</v>
       </c>
@@ -10166,9 +10162,7 @@
       <c r="C333" t="n">
         <v>127.5385714285714</v>
       </c>
-      <c r="D333" t="n">
-        <v>98.37090909090909</v>
-      </c>
+      <c r="D333" t="inlineStr"/>
       <c r="E333" t="n">
         <v>300.9985714285714</v>
       </c>
@@ -10199,9 +10193,7 @@
       <c r="C334" t="n">
         <v>121.8685714285714</v>
       </c>
-      <c r="D334" t="n">
-        <v>93.69090909090907</v>
-      </c>
+      <c r="D334" t="inlineStr"/>
       <c r="E334" t="n">
         <v>296.9685714285715</v>
       </c>
@@ -10215,6 +10207,33 @@
         <v>448.65</v>
       </c>
       <c r="I334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="n">
+        <v>328.4345454545455</v>
+      </c>
+      <c r="E335" t="n">
+        <v>316.3485714285715</v>
+      </c>
+      <c r="F335" t="n">
+        <v>328.4777777777778</v>
+      </c>
+      <c r="G335" t="n">
+        <v>331.84</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10231,7 +10250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13919,6 +13938,16 @@
       </c>
       <c r="B368" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -14089,7 +14118,7 @@
         <v>0.1384855219355614</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K2" t="n">
         <v>197</v>
@@ -14167,7 +14196,7 @@
         <v>-1.971797042534133</v>
       </c>
       <c r="J3" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K3" t="n">
         <v>214</v>
@@ -14242,28 +14271,28 @@
         <v>0.0607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05854870979169094</v>
+        <v>0.6945723699328542</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K4" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001572621938268348</v>
+        <v>0.08065849142203196</v>
       </c>
       <c r="M4" t="n">
-        <v>16.82762268770893</v>
+        <v>12.2284887597343</v>
       </c>
       <c r="N4" t="n">
-        <v>1156.944745300768</v>
+        <v>289.2589639813663</v>
       </c>
       <c r="O4" t="n">
-        <v>34.01389047581544</v>
+        <v>17.00761488220398</v>
       </c>
       <c r="P4" t="n">
-        <v>338.6278539792644</v>
+        <v>331.7860047215308</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14320,28 +14349,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8372250479859524</v>
+        <v>0.8191432363102575</v>
       </c>
       <c r="J5" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K5" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.110972839291431</v>
+        <v>0.1065164775857221</v>
       </c>
       <c r="M5" t="n">
-        <v>12.72390705417909</v>
+        <v>12.80113606116248</v>
       </c>
       <c r="N5" t="n">
-        <v>296.8115642277454</v>
+        <v>298.363859643808</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2282199959179</v>
+        <v>17.27321219819313</v>
       </c>
       <c r="P5" t="n">
-        <v>321.6470990591606</v>
+        <v>321.8416179368548</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14398,28 +14427,28 @@
         <v>0.1234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8024652749747243</v>
+        <v>0.7837616133881764</v>
       </c>
       <c r="J6" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K6" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2146140147330144</v>
+        <v>0.2041448585515249</v>
       </c>
       <c r="M6" t="n">
-        <v>8.312334841972392</v>
+        <v>8.386088481953353</v>
       </c>
       <c r="N6" t="n">
-        <v>121.4817097982169</v>
+        <v>123.7966809868555</v>
       </c>
       <c r="O6" t="n">
-        <v>11.02187415089725</v>
+        <v>11.12639568714216</v>
       </c>
       <c r="P6" t="n">
-        <v>335.0877313086251</v>
+        <v>335.2934272214661</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14470,28 +14499,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.7894602003194042</v>
+        <v>0.7676749316499971</v>
       </c>
       <c r="J7" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K7" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2342547712609635</v>
+        <v>0.2190822708484772</v>
       </c>
       <c r="M7" t="n">
-        <v>7.862108280330218</v>
+        <v>7.973964172960224</v>
       </c>
       <c r="N7" t="n">
-        <v>105.425017151972</v>
+        <v>108.9950875954459</v>
       </c>
       <c r="O7" t="n">
-        <v>10.26766853535758</v>
+        <v>10.44007124474952</v>
       </c>
       <c r="P7" t="n">
-        <v>344.9334190212502</v>
+        <v>345.1721491933897</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14551,7 +14580,7 @@
         <v>0.8508228812584344</v>
       </c>
       <c r="J8" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K8" t="n">
         <v>243</v>
@@ -14607,7 +14636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27637,11 +27666,7 @@
           <t>-45.809420238113155,170.74093406495732</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>-45.810646899341386,170.74261389651605</t>
-        </is>
-      </c>
+      <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr">
         <is>
           <t>-45.81137811996323,170.74291695310703</t>
@@ -27684,11 +27709,7 @@
           <t>-45.809352784917664,170.74071171668584</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>-45.81000998792229,170.73997075729696</t>
-        </is>
-      </c>
+      <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr">
         <is>
           <t>-45.811264297932425,170.742430107167</t>
@@ -27731,11 +27752,7 @@
           <t>-45.809440202377246,170.74099987421613</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>-45.810076206871614,170.7402455469218</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr">
         <is>
           <t>-45.81127637753438,170.7424817742028</t>
@@ -27778,11 +27795,7 @@
           <t>-45.80941990051574,170.74093295211858</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>-45.81006248881024,170.74018862062948</t>
-        </is>
-      </c>
+      <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr">
         <is>
           <t>-45.81126488072076,170.7424325998743</t>
@@ -27804,6 +27817,41 @@
         </is>
       </c>
       <c r="I334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-45.81075053724785,170.7430440163083</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-45.81132016793647,170.74266907611747</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-45.81194315949382,170.74250860175277</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-45.81256511139221,170.74233432053654</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10219,7 +10219,9 @@
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
-      <c r="C335" t="inlineStr"/>
+      <c r="C335" t="n">
+        <v>309.1585714285715</v>
+      </c>
       <c r="D335" t="n">
         <v>328.4345454545455</v>
       </c>
@@ -10234,6 +10236,138 @@
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>256.8528571428571</v>
+      </c>
+      <c r="C336" t="n">
+        <v>352.7528571428572</v>
+      </c>
+      <c r="D336" t="n">
+        <v>348.1045454545454</v>
+      </c>
+      <c r="E336" t="n">
+        <v>341.1928571428572</v>
+      </c>
+      <c r="F336" t="n">
+        <v>346.2233333333333</v>
+      </c>
+      <c r="G336" t="n">
+        <v>350.6946153846154</v>
+      </c>
+      <c r="H336" t="n">
+        <v>351.56</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>331.9271428571428</v>
+      </c>
+      <c r="C337" t="n">
+        <v>347.8071428571428</v>
+      </c>
+      <c r="D337" t="n">
+        <v>342.0272727272728</v>
+      </c>
+      <c r="E337" t="n">
+        <v>327.4671428571428</v>
+      </c>
+      <c r="F337" t="n">
+        <v>334.5733333333333</v>
+      </c>
+      <c r="G337" t="n">
+        <v>336.3646153846154</v>
+      </c>
+      <c r="H337" t="n">
+        <v>347.39</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>342.5528571428572</v>
+      </c>
+      <c r="C338" t="n">
+        <v>348.6028571428571</v>
+      </c>
+      <c r="D338" t="n">
+        <v>341.9345454545455</v>
+      </c>
+      <c r="E338" t="n">
+        <v>336.4028571428572</v>
+      </c>
+      <c r="F338" t="n">
+        <v>340.2033333333333</v>
+      </c>
+      <c r="G338" t="n">
+        <v>351.2346153846154</v>
+      </c>
+      <c r="H338" t="n">
+        <v>347.77</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>335.7657142857143</v>
+      </c>
+      <c r="C339" t="n">
+        <v>355.4857142857143</v>
+      </c>
+      <c r="D339" t="n">
+        <v>341.9963636363636</v>
+      </c>
+      <c r="E339" t="n">
+        <v>332.3857142857143</v>
+      </c>
+      <c r="F339" t="n">
+        <v>339.78</v>
+      </c>
+      <c r="G339" t="n">
+        <v>335.1946153846154</v>
+      </c>
+      <c r="H339" t="n">
+        <v>353.56</v>
+      </c>
+      <c r="I339" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10250,7 +10384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13948,6 +14082,46 @@
       </c>
       <c r="B369" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -14115,28 +14289,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.1384855219355614</v>
+        <v>0.2791095347597851</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000124751855929639</v>
+        <v>0.0005197846805322648</v>
       </c>
       <c r="M2" t="n">
-        <v>85.71145347459409</v>
+        <v>84.89442602935941</v>
       </c>
       <c r="N2" t="n">
-        <v>7910.106181823981</v>
+        <v>7807.535175210392</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93877771716892</v>
+        <v>88.36025789465755</v>
       </c>
       <c r="P2" t="n">
-        <v>272.809262484174</v>
+        <v>271.2326997154023</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14193,28 +14367,28 @@
         <v>0.1099</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.971797042534133</v>
+        <v>-1.817782269172065</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03637500082049183</v>
+        <v>0.03199918198705354</v>
       </c>
       <c r="M3" t="n">
-        <v>48.40848550887991</v>
+        <v>47.52624585159462</v>
       </c>
       <c r="N3" t="n">
-        <v>5194.40079481726</v>
+        <v>5114.140529299753</v>
       </c>
       <c r="O3" t="n">
-        <v>72.07219154998175</v>
+        <v>71.51321926259335</v>
       </c>
       <c r="P3" t="n">
-        <v>355.671744482142</v>
+        <v>353.9240425498366</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14271,28 +14445,28 @@
         <v>0.0607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6945723699328542</v>
+        <v>0.6745883699524414</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08065849142203196</v>
+        <v>0.07846262184806629</v>
       </c>
       <c r="M4" t="n">
-        <v>12.2284887597343</v>
+        <v>12.13523090489749</v>
       </c>
       <c r="N4" t="n">
-        <v>289.2589639813663</v>
+        <v>285.0012194280482</v>
       </c>
       <c r="O4" t="n">
-        <v>17.00761488220398</v>
+        <v>16.88197913243729</v>
       </c>
       <c r="P4" t="n">
-        <v>331.7860047215308</v>
+        <v>332.0034815219516</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14349,28 +14523,28 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8191432363102575</v>
+        <v>0.796260373808291</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1065164775857221</v>
+        <v>0.1031661851019032</v>
       </c>
       <c r="M5" t="n">
-        <v>12.80113606116248</v>
+        <v>12.77420359471881</v>
       </c>
       <c r="N5" t="n">
-        <v>298.363859643808</v>
+        <v>295.5107525781625</v>
       </c>
       <c r="O5" t="n">
-        <v>17.27321219819313</v>
+        <v>17.19042618954406</v>
       </c>
       <c r="P5" t="n">
-        <v>321.8416179368548</v>
+        <v>322.0891088523517</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14427,28 +14601,28 @@
         <v>0.1234</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7837616133881764</v>
+        <v>0.7427125963311927</v>
       </c>
       <c r="J6" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2041448585515249</v>
+        <v>0.1866673014175935</v>
       </c>
       <c r="M6" t="n">
-        <v>8.386088481953353</v>
+        <v>8.496475570040815</v>
       </c>
       <c r="N6" t="n">
-        <v>123.7966809868555</v>
+        <v>125.61409712498</v>
       </c>
       <c r="O6" t="n">
-        <v>11.12639568714216</v>
+        <v>11.20776949820882</v>
       </c>
       <c r="P6" t="n">
-        <v>335.2934272214661</v>
+        <v>335.7472286517579</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14499,28 +14673,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0.7676749316499971</v>
+        <v>0.7126799209856585</v>
       </c>
       <c r="J7" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2190822708484772</v>
+        <v>0.1885158054916785</v>
       </c>
       <c r="M7" t="n">
-        <v>7.973964172960224</v>
+        <v>8.211616616623687</v>
       </c>
       <c r="N7" t="n">
-        <v>108.9950875954459</v>
+        <v>114.6470858159046</v>
       </c>
       <c r="O7" t="n">
-        <v>10.44007124474952</v>
+        <v>10.70733794254691</v>
       </c>
       <c r="P7" t="n">
-        <v>345.1721491933897</v>
+        <v>345.7779953966889</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14577,28 +14751,28 @@
         <v>0.0473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8508228812584344</v>
+        <v>0.7914451340650517</v>
       </c>
       <c r="J8" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1270264737555067</v>
+        <v>0.1121470914397845</v>
       </c>
       <c r="M8" t="n">
-        <v>10.71905207204984</v>
+        <v>10.8393284171111</v>
       </c>
       <c r="N8" t="n">
-        <v>259.8492230492297</v>
+        <v>262.1950736649005</v>
       </c>
       <c r="O8" t="n">
-        <v>16.11983942380413</v>
+        <v>16.1924387806439</v>
       </c>
       <c r="P8" t="n">
-        <v>348.32448481877</v>
+        <v>348.9755263208256</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14636,7 +14810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27829,7 +28003,11 @@
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
-      <c r="C335" t="inlineStr"/>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-45.81009048614329,170.74314353223699</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>-45.81075053724785,170.7430440163083</t>
@@ -27852,6 +28030,194 @@
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-45.80931476169081,170.74289495474434</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-45.81024656802763,170.74365808252642</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-45.81080818807505,170.74328328332155</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-45.81139104294854,170.74297222870246</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-45.81199264095968,170.74272567662007</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-45.812597803734256,170.74257236127022</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-45.81321039070912,170.74248934344067</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-45.8095968221735,170.74377258285725</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-45.81022886085757,170.74359970732564</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-45.81079037624153,170.7432093589714</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-45.81135188675197,170.74280474599587</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-45.81196015630384,170.7425831664014</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-45.812572956745484,170.7423914440701</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-45.81320562710058,170.7424361247946</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-45.80963674335404,170.74389679956465</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-45.8102317097601,170.74360909928922</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-45.81079010446749,170.74320823103108</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-45.811377378245844,170.74291378055707</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-45.81197585491901,170.7426520361251</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-45.81259874004231,170.74257917880936</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-45.81320606119542,170.74244097445498</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-45.80961124383597,170.74381745649757</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-45.81025635247967,170.74369033897221</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-45.81079028565019,170.7432089829913</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-45.81136591829356,170.74286476292866</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-45.81197467450354,170.74264685764243</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-45.81257092805348,170.74237667275014</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-45.81321267540473,170.7425148679747</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -14285,9 +14285,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>0.2791126882204054</v>
       </c>
@@ -14358,13 +14364,13 @@
         <v>0.167175593082924</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0536</v>
+        <v>0.0538</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1099</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-1.817794086333449</v>
@@ -14436,13 +14442,13 @@
         <v>0.3342505605136533</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0474</v>
+        <v>0.0745</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0607</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.6745885978262196</v>
@@ -14514,13 +14520,13 @@
         <v>0.5007597618855749</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0574</v>
+        <v>0.0411</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1434</v>
       </c>
       <c r="I5" t="n">
         <v>0.7962507852495676</v>
@@ -14592,13 +14598,13 @@
         <v>0.6678170999459114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0677</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1234</v>
+        <v>0.1087</v>
       </c>
       <c r="I6" t="n">
         <v>0.7426910137009214</v>
@@ -14669,9 +14675,15 @@
       <c r="E7" t="n">
         <v>0.8339861925110448</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0733</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1002</v>
+      </c>
       <c r="I7" t="n">
         <v>0.712667535826912</v>
       </c>
@@ -14742,13 +14754,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.035</v>
+        <v>0.0441</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0473</v>
+        <v>0.1034</v>
       </c>
       <c r="I8" t="n">
         <v>0.7914451340650517</v>

--- a/data/nzd0505/nzd0505.xlsx
+++ b/data/nzd0505/nzd0505.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.78</v>
+        <v>179.76</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.65</v>
+        <v>170.46</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173.17</v>
+        <v>173.05</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>184.98</v>
+        <v>184.73</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.17</v>
+        <v>172.99</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.76</v>
+        <v>180.64</v>
       </c>
       <c r="C11" t="n">
         <v>313.48</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>178.73</v>
+        <v>178.76</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.14</v>
+        <v>164.13</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>184.84</v>
+        <v>184.74</v>
       </c>
       <c r="C17" t="n">
         <v>312.36</v>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>304.22</v>
+        <v>304.48</v>
       </c>
       <c r="C20" t="n">
         <v>341.14</v>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.9</v>
+        <v>318.84</v>
       </c>
       <c r="C21" t="n">
         <v>327.53</v>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.2</v>
+        <v>360.41</v>
       </c>
       <c r="C22" t="n">
         <v>358.72</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>334.13</v>
+        <v>333.91</v>
       </c>
       <c r="C23" t="n">
         <v>331.62</v>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>363.06</v>
+        <v>363.19</v>
       </c>
       <c r="C24" t="n">
         <v>358.52</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>354.18</v>
+        <v>354.15</v>
       </c>
       <c r="C25" t="n">
         <v>347.39</v>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>316.42</v>
+        <v>316.27</v>
       </c>
       <c r="C32" t="n">
         <v>329.94</v>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>322.85</v>
+        <v>322.71</v>
       </c>
       <c r="C33" t="n">
         <v>333.68</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>339.52</v>
+        <v>339.49</v>
       </c>
       <c r="C35" t="n">
         <v>349.05</v>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>354.26</v>
+        <v>354.37</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>347.35</v>
+        <v>347.32</v>
       </c>
       <c r="C37" t="n">
         <v>343.63</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>369.16</v>
+        <v>369.26</v>
       </c>
       <c r="C38" t="n">
         <v>363.36</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>357.67</v>
+        <v>357.89</v>
       </c>
       <c r="C39" t="n">
         <v>343.04</v>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>338.18</v>
+        <v>338.01</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>353.34</v>
+        <v>353.65</v>
       </c>
       <c r="C41" t="n">
         <v>364.86</v>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>335.44</v>
+        <v>335.34</v>
       </c>
       <c r="C42" t="n">
         <v>343.51</v>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>249.36</v>
+        <v>249.37</v>
       </c>
       <c r="C43" t="n">
         <v>341.1</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>169.26</v>
+        <v>169.16</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>170.81</v>
+        <v>171.05</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.35</v>
+        <v>173.65</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>165.24</v>
+        <v>165.37</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>331.64</v>
+        <v>331.65</v>
       </c>
       <c r="C48" t="n">
         <v>332.43</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>347.32</v>
+        <v>347.53</v>
       </c>
       <c r="C50" t="n">
         <v>338.49</v>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>378.33</v>
+        <v>378.52</v>
       </c>
       <c r="C52" t="n">
         <v>364.04</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>364.65</v>
+        <v>364.88</v>
       </c>
       <c r="C53" t="n">
         <v>361.25</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>338.32</v>
+        <v>338.18</v>
       </c>
       <c r="C54" t="n">
         <v>348.3</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>354.3</v>
+        <v>354.13</v>
       </c>
       <c r="C59" t="n">
         <v>339.56</v>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>352.41</v>
+        <v>352.35</v>
       </c>
       <c r="C60" t="n">
         <v>355.23</v>
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>340.63</v>
+        <v>340.48</v>
       </c>
       <c r="C64" t="n">
         <v>341.41</v>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>322.48</v>
+        <v>322.52</v>
       </c>
       <c r="C67" t="n">
         <v>355.82</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>339.64</v>
+        <v>339.52</v>
       </c>
       <c r="C69" t="n">
         <v>346.42</v>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>364.55</v>
+        <v>364.4</v>
       </c>
       <c r="C70" t="n">
         <v>363.51</v>
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>347.45</v>
+        <v>347.26</v>
       </c>
       <c r="C71" t="n">
         <v>344.36</v>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>379.3</v>
+        <v>379.41</v>
       </c>
       <c r="C72" t="n">
         <v>373.7</v>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>347.94</v>
+        <v>348.02</v>
       </c>
       <c r="C73" t="n">
         <v>363.86</v>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>350.85</v>
+        <v>350.7</v>
       </c>
       <c r="C76" t="n">
         <v>355.31</v>
@@ -2711,7 +2711,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>330.68</v>
+        <v>330.49</v>
       </c>
       <c r="C77" t="n">
         <v>330.93</v>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>368.49</v>
+        <v>368.7</v>
       </c>
       <c r="C81" t="n">
         <v>362.42</v>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>329.44</v>
+        <v>329.64</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>355.69</v>
+        <v>355.79</v>
       </c>
       <c r="C83" t="n">
         <v>353.29</v>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>357.07</v>
+        <v>357.04</v>
       </c>
       <c r="C84" t="n">
         <v>355.4</v>
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>357.11</v>
+        <v>356.98</v>
       </c>
       <c r="C85" t="n">
         <v>359.18</v>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>331.68</v>
+        <v>331.91</v>
       </c>
       <c r="C91" t="n">
         <v>338.43</v>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>352.39</v>
+        <v>352.74</v>
       </c>
       <c r="C92" t="n">
         <v>355.88</v>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>360.33</v>
+        <v>360.34</v>
       </c>
       <c r="C96" t="n">
         <v>359.2</v>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>353.37</v>
+        <v>353.2</v>
       </c>
       <c r="C97" t="n">
         <v>351.82</v>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>169.27</v>
+        <v>169.29</v>
       </c>
       <c r="C99" t="n">
         <v>147.22</v>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>165.12</v>
+        <v>165.15</v>
       </c>
       <c r="C100" t="n">
         <v>127.46</v>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>138.73</v>
+        <v>138.91</v>
       </c>
       <c r="C102" t="n">
         <v>101.44</v>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>170.1</v>
+        <v>170.45</v>
       </c>
       <c r="C104" t="n">
         <v>118.53</v>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>176.02</v>
+        <v>176.26</v>
       </c>
       <c r="C105" t="n">
         <v>318.02</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>183.2</v>
+        <v>183.44</v>
       </c>
       <c r="C115" t="n">
         <v>293.32</v>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>174</v>
+        <v>174.3</v>
       </c>
       <c r="C116" t="n">
         <v>257.67</v>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>182.2</v>
+        <v>182.05</v>
       </c>
       <c r="C118" t="n">
         <v>294.91</v>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>176.28</v>
+        <v>176.64</v>
       </c>
       <c r="C119" t="n">
         <v>317.7</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>176.39</v>
+        <v>176.55</v>
       </c>
       <c r="C124" t="n">
         <v>324.66</v>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>166.4</v>
+        <v>166.58</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>170.17</v>
+        <v>170.06</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>173.77</v>
+        <v>173.92</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>174.59</v>
+        <v>174.55</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>176.52</v>
+        <v>176.6</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>174.81</v>
+        <v>174.61</v>
       </c>
       <c r="C131" t="n">
         <v>304.59</v>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>180.56</v>
+        <v>180.62</v>
       </c>
       <c r="C138" t="n">
         <v>345.46</v>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>183.41</v>
+        <v>183.44</v>
       </c>
       <c r="C139" t="n">
         <v>329.32</v>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>180.74</v>
+        <v>180.58</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>162.9</v>
+        <v>163.22</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>181</v>
+        <v>180.94</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>180.03</v>
+        <v>180.13</v>
       </c>
       <c r="C144" t="n">
         <v>349.48</v>
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>176.71</v>
+        <v>176.74</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>184.54</v>
+        <v>184.38</v>
       </c>
       <c r="C150" t="n">
         <v>346.93</v>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>161.5</v>
+        <v>161.68</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>171.61</v>
+        <v>171.48</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>163.33</v>
+        <v>163.67</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>182.14</v>
+        <v>181.94</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>179.38</v>
+        <v>179.32</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>250.65</v>
+        <v>250.84</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>365.72</v>
+        <v>365.73</v>
       </c>
       <c r="C160" t="n">
         <v>365.65</v>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>354.78</v>
+        <v>354.93</v>
       </c>
       <c r="C161" t="n">
         <v>358.84</v>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>336.45</v>
+        <v>336.3</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>353.25</v>
+        <v>353.01</v>
       </c>
       <c r="C165" t="n">
         <v>348.86</v>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>304.54</v>
+        <v>304.35</v>
       </c>
       <c r="C171" t="n">
         <v>286.2</v>
@@ -5468,7 +5468,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>154.15</v>
+        <v>154.35</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>180.91</v>
+        <v>180.7</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>175.9</v>
+        <v>176.11</v>
       </c>
       <c r="C174" t="n">
         <v>258.75</v>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>171.23</v>
+        <v>171.41</v>
       </c>
       <c r="C175" t="n">
         <v>343.02</v>
@@ -5911,7 +5911,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>168.42</v>
+        <v>168.39</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>175.91</v>
+        <v>175.81</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>173.92</v>
+        <v>174.25</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>252.8</v>
+        <v>252.6</v>
       </c>
       <c r="C196" t="n">
         <v>332.29</v>
@@ -6129,7 +6129,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>277.62</v>
+        <v>277.77</v>
       </c>
       <c r="C197" t="n">
         <v>352.77</v>
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>340.41</v>
+        <v>340.32</v>
       </c>
       <c r="C198" t="n">
         <v>353.58</v>
@@ -6191,7 +6191,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>327</v>
+        <v>326.98</v>
       </c>
       <c r="C199" t="n">
         <v>343.56</v>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>340.64</v>
+        <v>340.69</v>
       </c>
       <c r="C200" t="n">
         <v>347.82</v>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>397.26</v>
+        <v>397.52</v>
       </c>
       <c r="C202" t="n">
         <v>387.8</v>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>376.26</v>
+        <v>376.49</v>
       </c>
       <c r="C203" t="n">
         <v>369.45</v>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>352.12</v>
+        <v>351.86</v>
       </c>
       <c r="C204" t="n">
         <v>353.09</v>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>362.68</v>
+        <v>362.78</v>
       </c>
       <c r="C206" t="n">
         <v>362.06</v>
@@ -6429,7 +6429,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>381.19</v>
+        <v>381.37</v>
       </c>
       <c r="C207" t="n">
         <v>375.04</v>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>351.6</v>
+        <v>351.83</v>
       </c>
       <c r="C208" t="n">
         <v>363.32</v>
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>363.37</v>
+        <v>363.22</v>
       </c>
       <c r="C209" t="n">
         <v>363.93</v>
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>351.09</v>
+        <v>351.41</v>
       </c>
       <c r="C210" t="n">
         <v>365.82</v>
@@ -6551,7 +6551,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>365.88</v>
+        <v>365.85</v>
       </c>
       <c r="C211" t="n">
         <v>367.48</v>
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>259.11</v>
+        <v>259.33</v>
       </c>
       <c r="C214" t="n">
         <v>262.64</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>182.6</v>
+        <v>182.4</v>
       </c>
       <c r="C215" t="n">
         <v>150.23</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>161.99</v>
+        <v>162.24</v>
       </c>
       <c r="C216" t="n">
         <v>126.87</v>
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>167.51</v>
+        <v>167.69</v>
       </c>
       <c r="C217" t="n">
         <v>120.6</v>
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>172.03</v>
+        <v>171.97</v>
       </c>
       <c r="C219" t="n">
         <v>123.95</v>
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>165.65</v>
+        <v>165.77</v>
       </c>
       <c r="C220" t="n">
         <v>143.42</v>
@@ -6848,7 +6848,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>180.63</v>
+        <v>180.47</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>200.64</v>
+        <v>200.49</v>
       </c>
       <c r="C224" t="n">
         <v>304.92</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>178.77</v>
+        <v>178.61</v>
       </c>
       <c r="C225" t="n">
         <v>324.24</v>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>320.74</v>
+        <v>320.5</v>
       </c>
       <c r="C227" t="n">
         <v>344.2</v>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>341.54</v>
+        <v>341.36</v>
       </c>
       <c r="C229" t="n">
         <v>350.08</v>
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>349.75</v>
+        <v>349.87</v>
       </c>
       <c r="C230" t="n">
         <v>354.79</v>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>344.94</v>
+        <v>344.9</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>346.37</v>
+        <v>346.39</v>
       </c>
       <c r="C232" t="n">
         <v>350.44</v>
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>344.73</v>
+        <v>344.49</v>
       </c>
       <c r="C233" t="n">
         <v>345.35</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>313.78</v>
+        <v>313.8</v>
       </c>
       <c r="C235" t="n">
         <v>329.1</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>340.42</v>
+        <v>340.53</v>
       </c>
       <c r="C241" t="n">
         <v>352.58</v>
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>184.75</v>
+        <v>184.73</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>183.99</v>
+        <v>183.79</v>
       </c>
       <c r="C243" t="n">
         <v>139.61</v>
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>174.39</v>
+        <v>174.69</v>
       </c>
       <c r="C244" t="n">
         <v>144.23</v>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>146.08</v>
+        <v>146.29</v>
       </c>
       <c r="C245" t="n">
         <v>126.06</v>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>159.09</v>
+        <v>159.3</v>
       </c>
       <c r="C246" t="n">
         <v>110.87</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>166.44</v>
+        <v>166.63</v>
       </c>
       <c r="C247" t="n">
         <v>116.37</v>
@@ -7593,7 +7593,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>167.74</v>
+        <v>167.66</v>
       </c>
       <c r="C249" t="n">
         <v>132.18</v>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>169.28</v>
+        <v>169.46</v>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="n">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>180.97</v>
+        <v>180.83</v>
       </c>
       <c r="C251" t="n">
         <v>316.51</v>
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>317.64</v>
+        <v>317.46</v>
       </c>
       <c r="C252" t="n">
         <v>334.87</v>
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>311.41</v>
+        <v>311.69</v>
       </c>
       <c r="C253" t="n">
         <v>353.18</v>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>319.55</v>
+        <v>319.3</v>
       </c>
       <c r="C254" t="n">
         <v>342.59</v>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>362.33</v>
+        <v>362.37</v>
       </c>
       <c r="C257" t="n">
         <v>350.88</v>
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>345.6</v>
+        <v>345.58</v>
       </c>
       <c r="C258" t="n">
         <v>349.33</v>
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>349.21</v>
+        <v>349.2</v>
       </c>
       <c r="C259" t="n">
         <v>349.73</v>
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>386.09</v>
+        <v>386.16</v>
       </c>
       <c r="C262" t="n">
         <v>376.25</v>
@@ -8013,7 +8013,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>371.36</v>
+        <v>371.24</v>
       </c>
       <c r="C263" t="n">
         <v>365.38</v>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>368.04</v>
+        <v>367.94</v>
       </c>
       <c r="C264" t="n">
         <v>357.85</v>
@@ -8079,7 +8079,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>379.75</v>
+        <v>379.95</v>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
@@ -8106,7 +8106,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>390.52</v>
+        <v>390.81</v>
       </c>
       <c r="C266" t="n">
         <v>376.83</v>
@@ -8465,7 +8465,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>353.65</v>
+        <v>353.8</v>
       </c>
       <c r="C279" t="n">
         <v>357.85</v>
@@ -8498,7 +8498,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>334.86</v>
+        <v>334.83</v>
       </c>
       <c r="C280" t="n">
         <v>343.4</v>
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>345.27</v>
+        <v>345.1</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>368.39</v>
+        <v>368.68</v>
       </c>
       <c r="C282" t="n">
         <v>363.38</v>
@@ -8583,7 +8583,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>368.97</v>
+        <v>368.79</v>
       </c>
       <c r="C283" t="n">
         <v>363.67</v>
@@ -8639,7 +8639,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>362.58</v>
+        <v>362.49</v>
       </c>
       <c r="C285" t="n">
         <v>356.25</v>
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>376.86</v>
+        <v>376.91</v>
       </c>
       <c r="C286" t="n">
         <v>373.95</v>
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>367.32</v>
+        <v>367.49</v>
       </c>
       <c r="C287" t="n">
         <v>368.6</v>
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>367.42</v>
+        <v>367.64</v>
       </c>
       <c r="C288" t="n">
         <v>380.73</v>
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>364.72</v>
+        <v>364.78</v>
       </c>
       <c r="C289" t="n">
         <v>367.47</v>
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>365.82</v>
+        <v>366.05</v>
       </c>
       <c r="C291" t="n">
         <v>370.33</v>
@@ -8893,7 +8893,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>337.23</v>
+        <v>337.03</v>
       </c>
       <c r="C293" t="n">
         <v>363.63</v>
@@ -8926,7 +8926,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>171.73</v>
+        <v>171.72</v>
       </c>
       <c r="C294" t="n">
         <v>122.34</v>
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>167.08</v>
+        <v>167.11</v>
       </c>
       <c r="C295" t="n">
         <v>120.78</v>
@@ -8988,7 +8988,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>171.58</v>
+        <v>171.45</v>
       </c>
       <c r="C296" t="n">
         <v>120.04</v>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>159.35</v>
+        <v>159.63</v>
       </c>
       <c r="C297" t="n">
         <v>117.95</v>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>172.77</v>
+        <v>172.54</v>
       </c>
       <c r="C298" t="n">
         <v>124.44</v>
@@ -9085,7 +9085,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>178.91</v>
+        <v>178.71</v>
       </c>
       <c r="C299" t="n">
         <v>231.58</v>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>180.21</v>
+        <v>180.17</v>
       </c>
       <c r="C300" t="n">
         <v>345.36</v>
@@ -9149,7 +9149,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>248.94</v>
+        <v>249.03</v>
       </c>
       <c r="C301" t="n">
         <v>349.37</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>281.78</v>
+        <v>281.76</v>
       </c>
       <c r="C303" t="n">
         <v>350.22</v>
@@ -9240,7 +9240,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>390.72</v>
+        <v>391.04</v>
       </c>
       <c r="C304" t="n">
         <v>373.15</v>
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>354.79</v>
+        <v>354.94</v>
       </c>
       <c r="C305" t="n">
         <v>356.58</v>
@@ -9325,7 +9325,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>373.54</v>
+        <v>373.85</v>
       </c>
       <c r="C307" t="n">
         <v>365.79</v>
@@ -9387,7 +9387,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>379.03</v>
+        <v>379.23</v>
       </c>
       <c r="C309" t="n">
         <v>373.06</v>
@@ -9420,7 +9420,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>362.08</v>
+        <v>361.91</v>
       </c>
       <c r="C310" t="n">
         <v>356.55</v>
@@ -9453,7 +9453,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>377.54</v>
+        <v>377.82</v>
       </c>
       <c r="C311" t="n">
         <v>367.37</v>
@@ -9486,7 +9486,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>369.52</v>
+        <v>369.31</v>
       </c>
       <c r="C312" t="n">
         <v>355.33</v>
@@ -9519,7 +9519,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>380</v>
+        <v>380.21</v>
       </c>
       <c r="C313" t="n">
         <v>364.72</v>
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>340.86</v>
+        <v>340.9</v>
       </c>
       <c r="C318" t="n">
         <v>367.5</v>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>337.91</v>
+        <v>337.88</v>
       </c>
       <c r="C321" t="n">
         <v>343.65</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>320.97</v>
+        <v>321.03</v>
       </c>
       <c r="C322" t="n">
         <v>342.87</v>
@@ -9829,7 +9829,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>332.53</v>
+        <v>332.38</v>
       </c>
       <c r="C323" t="n">
         <v>343.11</v>
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>372.7</v>
+        <v>372.9</v>
       </c>
       <c r="C324" t="n">
         <v>369.43</v>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>354.25</v>
+        <v>353.99</v>
       </c>
       <c r="C325" t="n">
         <v>347.59</v>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>354.85</v>
+        <v>354.74</v>
       </c>
       <c r="C326" t="n">
         <v>358.05</v>
@@ -9961,7 +9961,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>364.24</v>
+        <v>364.31</v>
       </c>
       <c r="C327" t="n">
         <v>366.09</v>
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>325.04</v>
+        <v>324.94</v>
       </c>
       <c r="C328" t="n">
         <v>338.28</v>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>345.17</v>
+        <v>345.35</v>
       </c>
       <c r="C329" t="n">
         <v>370.99</v>
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>181.74</v>
+        <v>181.56</v>
       </c>
       <c r="C330" t="n">
         <v>324.44</v>
@@ -10093,7 +10093,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>168.84</v>
+        <v>169.07</v>
       </c>
       <c r="C331" t="n">
         <v>128.37</v>
@@ -10126,7 +10126,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>155.14</v>
+        <v>155.29</v>
       </c>
       <c r="C332" t="n">
         <v>107.21</v>
@@ -10157,7 +10157,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>165.56</v>
+        <v>165.5</v>
       </c>
       <c r="C333" t="n">
         <v>125.96</v>
@@ -10188,7 +10188,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>163</v>
+        <v>162.94</v>
       </c>
       <c r="C334" t="n">
         <v>120.29</v>
@@ -10219,7 +10219,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>301.1</v>
+        <v>300.93</v>
       </c>
       <c r="C335" t="n">
         <v>304.33</v>
@@ -10250,7 +10250,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>262.65</v>
+        <v>262.88</v>
       </c>
       <c r="C336" t="n">
         <v>359.16</v>
@@ -10283,7 +10283,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>327.89</v>
+        <v>327.74</v>
       </c>
       <c r="C337" t="n">
         <v>343.35</v>
@@ -10316,7 +10316,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>348.35</v>
+        <v>348.58</v>
       </c>
       <c r="C338" t="n">
         <v>355.01</v>
@@ -10349,7 +10349,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>335.01</v>
+        <v>334.98</v>
       </c>
       <c r="C339" t="n">
         <v>354.65</v>
@@ -10382,7 +10382,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>353.49</v>
+        <v>353.35</v>
       </c>
       <c r="C340" t="n">
         <v>354.01</v>
@@ -14340,7 +14340,7 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6066039884630617</v>
+        <v>0.6076851228144482</v>
       </c>
       <c r="J2" t="n">
         <v>339</v>
@@ -14349,19 +14349,19 @@
         <v>198</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002573978079332351</v>
+        <v>0.002583227584783909</v>
       </c>
       <c r="M2" t="n">
-        <v>83.27262003759303</v>
+        <v>83.26305940073979</v>
       </c>
       <c r="N2" t="n">
-        <v>7592.507255844499</v>
+        <v>7592.24209457858</v>
       </c>
       <c r="O2" t="n">
-        <v>87.13499443877012</v>
+        <v>87.1334728710992</v>
       </c>
       <c r="P2" t="n">
-        <v>266.5713883627882</v>
+        <v>266.5797808560886</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-45.80902518554656,170.74199397250817</t>
+          <t>-45.80902511040219,170.74199373870925</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-45.80899088208654,170.74188724337793</t>
+          <t>-45.80899016821284,170.7418850222912</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-45.80900035030211,170.74191670200725</t>
+          <t>-45.808999899434866,170.74191529921515</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-45.80904472307058,170.7420547602436</t>
+          <t>-45.809043783767265,170.74205183775533</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-45.80900035030211,170.74191670200725</t>
+          <t>-45.80899967400124,170.7419145978191</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-45.809028867620825,170.74200542865498</t>
+          <t>-45.80902841675464,170.7420040258614</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-45.80902124046576,170.74198169806687</t>
+          <t>-45.80902135318237,170.74198204876518</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-45.80896642249524,170.74181114196608</t>
+          <t>-45.80896638492286,170.74181102506688</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-45.80904419706073,170.74205312365015</t>
+          <t>-45.80904382133939,170.74205195465487</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-45.80949272484661,170.7434486817166</t>
+          <t>-45.80949370168573,170.74345172115437</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-45.80954787856152,170.74362029322145</t>
+          <t>-45.80954765313812,170.74361959181132</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-45.80970304399571,170.74410309856611</t>
+          <t>-45.809703832967394,170.74410555351557</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -15801,7 +15801,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-45.80960509839575,170.7437983346792</t>
+          <t>-45.80960427184722,170.7437957628367</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-45.80971378903424,170.7441365326456</t>
+          <t>-45.80971427744487,170.7441380523768</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-45.80968042678546,170.7440327233789</t>
+          <t>-45.80968031407501,170.7440323726721</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-45.8095385610579,170.74359130160775</t>
+          <t>-45.809537997498985,170.743589548083</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -16175,7 +16175,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-45.80956271892541,170.74366646940084</t>
+          <t>-45.80956219293815,170.74366483277635</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -16265,7 +16265,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-45.809625348817065,170.74386134484462</t>
+          <t>-45.80962523610608,170.74386099413857</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-45.80968072734668,170.74403365859692</t>
+          <t>-45.80968114061833,170.7440349445218</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -16351,7 +16351,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-45.80965476634444,170.74395287917562</t>
+          <t>-45.80965465363373,170.74395252846918</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-45.80973670674178,170.7442078431388</t>
+          <t>-45.809737082441536,170.7442090121638</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-45.80969353876135,170.744073522276</t>
+          <t>-45.80969436530378,170.7440760941269</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-45.809620314392674,170.74384567997538</t>
+          <t>-45.8096196756969,170.74384369264143</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-45.80967727089229,170.74402290358995</t>
+          <t>-45.80967843556725,170.74402652755956</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-45.80961002011537,170.74381364883385</t>
+          <t>-45.809609644411665,170.7438124798143</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -16617,7 +16617,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-45.80928661002678,170.7428073627727</t>
+          <t>-45.80928664759817,170.74280747967327</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -16664,7 +16664,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-45.80898565953588,170.74187099437643</t>
+          <t>-45.808985283812724,170.74186982538365</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -16707,7 +16707,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-45.8089914832433,170.74188911376677</t>
+          <t>-45.80899238497839,170.74189191935014</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-45.80900102660295,170.74191880619543</t>
+          <t>-45.8090021537709,170.7419223131759</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-45.80897055545579,170.74182400087884</t>
+          <t>-45.80897104389647,170.74182552056863</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -16800,7 +16800,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-45.80959574336589,170.7437692261028</t>
+          <t>-45.80959578093632,170.74376934300471</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-45.80965465363373,170.74395252846918</t>
+          <t>-45.80965544260857,170.74395498341428</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -16952,7 +16952,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-45.80977115836119,170.74431504279622</t>
+          <t>-45.8097718721887,170.74431726394647</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -16999,7 +16999,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-45.809719762670404,170.74415512012905</t>
+          <t>-45.80972062678104,170.74415780888484</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-45.80962084037741,170.7438473166034</t>
+          <t>-45.809620314392674,170.74384567997538</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-45.80968087762727,170.74403412620597</t>
+          <t>-45.809680238934696,170.7440321388676</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -17260,7 +17260,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-45.809673776866745,170.7440120316821</t>
+          <t>-45.8096735514457,170.74401133026873</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -17420,7 +17420,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-45.80962951912224,170.74387432096984</t>
+          <t>-45.80962895556757,170.74387256743927</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -17541,7 +17541,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-45.80956132881615,170.74366214403614</t>
+          <t>-45.80956147909824,170.74366261164312</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-45.809625799660935,170.74386274766889</t>
+          <t>-45.809625348817065,170.74386134484462</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-45.8097193869701,170.7441539511048</t>
+          <t>-45.80971882341963,170.74415219756847</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -17701,7 +17701,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-45.80965514204674,170.74395404819708</t>
+          <t>-45.80965442821234,170.74395182705632</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-45.80977480263797,170.74432638235348</t>
+          <t>-45.809775215906406,170.74432766828275</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-45.8096569829879,170.74395977640253</t>
+          <t>-45.8096572835497,170.74396071161976</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -17900,7 +17900,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-45.809667915918396,170.74399379493659</t>
+          <t>-45.80966735236552,170.74399204140357</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-45.80959213660546,170.7437580035218</t>
+          <t>-45.809591422767326,170.74375578238616</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -18111,7 +18111,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-45.809734189553076,170.74420001067188</t>
+          <t>-45.80973497852272,170.74420246562414</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-45.809587477871645,170.7437435076902</t>
+          <t>-45.80958822928044,170.7437458457274</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-45.80968609987708,170.74405037562136</t>
+          <t>-45.8096864755784,170.74405154464418</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-45.80969128455449,170.74406650813756</t>
+          <t>-45.80969117184412,170.74406615743064</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -18275,7 +18275,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-45.80969143483495,170.7440669757468</t>
+          <t>-45.809690946423416,170.74406545601684</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-45.80959589364756,170.7437696937104</t>
+          <t>-45.80959675776708,170.74377238245398</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-45.8096737017264,170.74401179787765</t>
+          <t>-45.80967501668238,170.74401588945568</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-45.80970353240676,170.74410461829672</t>
+          <t>-45.80970356997686,170.74410473519907</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -18747,7 +18747,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-45.80967738360278,170.74402325429668</t>
+          <t>-45.809676744910014,170.74402126695858</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -18825,7 +18825,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-45.80898569710819,170.7418711112757</t>
+          <t>-45.80898577225282,170.74187134507426</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -18864,7 +18864,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-45.80897010458743,170.74182259808825</t>
+          <t>-45.80897021730451,170.74182294878588</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -18926,7 +18926,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-45.808870950712944,170.74151410162418</t>
+          <t>-45.808871627021034,170.7415162058024</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -18988,7 +18988,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-45.808988815609936,170.74188081391654</t>
+          <t>-45.80899013064053,170.74188490539188</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-45.809011058394105,170.74195001832655</t>
+          <t>-45.809011960127734,170.74195282391193</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -19437,7 +19437,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-45.80903803522939,170.74203395212925</t>
+          <t>-45.80903893696099,170.74203675771744</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -19484,7 +19484,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-45.809003468800064,170.74192640465327</t>
+          <t>-45.80900459596779,170.74192991163406</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -19562,7 +19562,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-45.80903427801359,170.74202226217963</t>
+          <t>-45.80903371443114,170.74202050868732</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -19605,7 +19605,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-45.80901203527221,170.7419530577107</t>
+          <t>-45.80901338787252,170.741957266089</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-45.80901244856677,170.74195434360405</t>
+          <t>-45.809013049722445,170.7419562139944</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -19839,7 +19839,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-45.80897491384899,170.74183756118887</t>
+          <t>-45.80897559015124,170.74183966537512</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -19874,7 +19874,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-45.808989078616065,170.74188163221157</t>
+          <t>-45.808988665320705,170.74188034631933</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -19909,7 +19909,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-45.80900260463806,170.74192371596814</t>
+          <t>-45.80900316822199,170.74192546945844</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -19944,7 +19944,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-45.80900568556317,170.7419333017156</t>
+          <t>-45.80900553527416,170.74193283411813</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-45.80901293700576,170.7419558632962</t>
+          <t>-45.8090132375836,170.74195679849137</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-45.809006512152706,170.74193587350166</t>
+          <t>-45.80900576070767,170.7419335355143</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -20330,7 +20330,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-45.80902811617718,170.7420030906657</t>
+          <t>-45.80902834161027,170.7420037920625</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -20377,7 +20377,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-45.80903882424455,170.7420364070189</t>
+          <t>-45.80903893696099,170.74203675771744</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -20424,7 +20424,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-45.80902879247645,170.74200519485606</t>
+          <t>-45.80902819132154,170.74200332446463</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -20463,7 +20463,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-45.808961763519854,170.7417966464668</t>
+          <t>-45.80896296583627,170.74180038724057</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -20529,7 +20529,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-45.80902976935312,170.7420082342422</t>
+          <t>-45.80902954392005,170.74200753284538</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -20568,7 +20568,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-45.80902612485133,170.74199689499446</t>
+          <t>-45.80902650057321,170.741998063989</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -20740,7 +20740,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-45.80901365087811,170.74195808438478</t>
+          <t>-45.8090137635948,170.74195843508298</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-45.80904306989669,170.7420496166643</t>
+          <t>-45.8090424687425,170.7420477462719</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -20880,7 +20880,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-45.80895650338419,170.7417802805835</t>
+          <t>-45.808957179687475,170.74178238476833</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-45.80899448902667,170.7418984657117</t>
+          <t>-45.80899400058693,170.74189694602057</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-45.80896337913249,170.74180167313162</t>
+          <t>-45.808964656593496,170.74180564770398</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -20993,7 +20993,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-45.809034052580614,170.7420215607827</t>
+          <t>-45.8090333011373,170.74201922279298</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -21032,7 +21032,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-45.80902368265879,170.7419892965303</t>
+          <t>-45.8090234572256,170.74198859513365</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -21141,7 +21141,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-45.809291456733575,170.74282244294747</t>
+          <t>-45.80929217058946,170.7428246640587</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -21164,7 +21164,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-45.80972378266288,170.74416762868938</t>
+          <t>-45.80972382023289,170.74416774559182</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-45.809682680994364,170.74403973751453</t>
+          <t>-45.80968324454653,170.74404149104853</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-45.80961381472226,170.74382545593207</t>
+          <t>-45.80961325116686,170.74382370240252</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -21375,7 +21375,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-45.80967693276083,170.7440218514698</t>
+          <t>-45.80967603107689,170.74401904581606</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -21613,7 +21613,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-45.80949392711012,170.74345242256314</t>
+          <t>-45.80949321326618,170.74345020143545</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-45.808928887634345,170.74169435974787</t>
+          <t>-45.80892963908414,170.74169669772863</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -21687,7 +21687,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-45.809029431203506,170.74200718214698</t>
+          <t>-45.809028642187734,170.74200472725818</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -21726,7 +21726,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-45.80901060752726,170.74194861553391</t>
+          <t>-45.80901139654423,170.74195107042107</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -21765,7 +21765,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-45.80899306127968,170.74189402353772</t>
+          <t>-45.808993737580906,170.74189612772537</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-45.808982503460996,170.74186117483745</t>
+          <t>-45.808982390744035,170.74186082413965</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-45.809010645099505,170.7419487324333</t>
+          <t>-45.80901026937713,170.74194756343942</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -22347,7 +22347,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-45.80900316822199,170.74192546945844</t>
+          <t>-45.80900440810651,170.74192932713723</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-45.80929953457392,170.74284757657801</t>
+          <t>-45.809298783147135,170.74284523856556</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22503,7 +22503,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-45.80939278627412,170.74313772442366</t>
+          <t>-45.80939334983981,170.74313947793905</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-45.80962869257537,170.74387174912502</t>
+          <t>-45.80962835444255,170.7438706970067</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -22589,7 +22589,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-45.80957831068047,170.7437149836417</t>
+          <t>-45.80957823553954,170.74371474983806</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-45.80962955669255,170.74387443787185</t>
+          <t>-45.809629744544104,170.74387502238207</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -22718,7 +22718,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-45.80984227791437,170.74453633979067</t>
+          <t>-45.80984325472519,170.7445393792674</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -22753,7 +22753,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-45.809763381395726,170.74429084395223</t>
+          <t>-45.80976424550325,170.74429353271233</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -22800,7 +22800,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-45.80967268733169,170.74400864151758</t>
+          <t>-45.80967171050707,170.74400560205984</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -22874,7 +22874,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-45.80971236137233,170.74413209035455</t>
+          <t>-45.80971273707285,170.7441332593785</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-45.80978190333906,170.74434847695915</t>
+          <t>-45.809782579596096,170.74435058120758</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -22960,7 +22960,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-45.809670733682374,170.74400256260222</t>
+          <t>-45.80967159779653,170.74400525135317</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -23003,7 +23003,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-45.809714953705665,170.74414015662003</t>
+          <t>-45.80971439015499,170.744138403084</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -23034,7 +23034,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-45.80966881760294,170.7439966005895</t>
+          <t>-45.8096700198489,170.74400034146015</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -23081,7 +23081,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-45.80972438378313,170.74416949912845</t>
+          <t>-45.80972427107308,170.74416914842112</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -23194,7 +23194,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-45.809323242064806,170.7429213409041</t>
+          <t>-45.80932406863258,170.74292391272013</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -23237,7 +23237,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-45.809035780900054,170.74202693815928</t>
+          <t>-45.80903502945686,170.74202460016943</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-45.808958344431936,170.74178600864232</t>
+          <t>-45.8089592837419,170.74178893112142</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -23299,7 +23299,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-45.80897908437896,170.74185053700486</t>
+          <t>-45.80897976068097,170.74185264119143</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -23369,7 +23369,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-45.808996067062644,170.7419033754832</t>
+          <t>-45.808995841628956,170.74190267408724</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-45.80897209592252,170.74182879374678</t>
+          <t>-45.808972546790805,170.74183019653748</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-45.80902837918246,170.74200390896195</t>
+          <t>-45.80902777802753,170.74200203857055</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -23528,7 +23528,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-45.809103560884544,170.74223782510978</t>
+          <t>-45.809102997305295,170.742236071613</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -23575,7 +23575,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-45.80902139075458,170.7419821656646</t>
+          <t>-45.8090207895993,170.74198029527366</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -23649,7 +23649,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-45.80955479154343,170.7436418031348</t>
+          <t>-45.80955388985037,170.74363899749363</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-45.809632938019995,170.74388495905595</t>
+          <t>-45.809632261754594,170.74388285481902</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -23782,7 +23782,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-45.80966378319669,170.7439809356953</t>
+          <t>-45.809664234039126,170.74398233852153</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-45.80964571191517,170.7439247057631</t>
+          <t>-45.80964556163413,170.74392423815468</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -23844,7 +23844,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-45.80965108446115,170.74394142276608</t>
+          <t>-45.809651159601636,170.74394165657034</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -23891,7 +23891,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-45.809644922939675,170.7439222508189</t>
+          <t>-45.80964402125334,170.74391944516844</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -23977,7 +23977,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-45.8095286424171,170.7435604395782</t>
+          <t>-45.809528717558344,170.7435606733814</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -24183,7 +24183,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-45.8096287301457,170.7438718660271</t>
+          <t>-45.80962914341912,170.74387315194946</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -24222,7 +24222,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-45.80904385891154,170.7420520715544</t>
+          <t>-45.809043783767265,170.74205183775533</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -24261,7 +24261,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-45.80904100342903,170.74204318719063</t>
+          <t>-45.80904025198615,170.74204084920032</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -24296,7 +24296,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-45.8090049341181,170.74193096372832</t>
+          <t>-45.80900606128569,170.74193447070925</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-45.80889856659539,170.74160002227742</t>
+          <t>-45.808899355619666,170.74160247715452</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -24354,7 +24354,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-45.808947448431,170.74175210789176</t>
+          <t>-45.808948237452086,170.74175456277322</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -24385,7 +24385,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-45.808975064138394,170.74183802878582</t>
+          <t>-45.80897577801297,170.7418402498713</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -24443,7 +24443,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-45.808979948542635,170.7418532256877</t>
+          <t>-45.80897964796397,170.74185229049365</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -24470,7 +24470,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-45.808985734680505,170.741871228175</t>
+          <t>-45.80898641098216,170.74187333236205</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -24513,7 +24513,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-45.80902965663658,170.74200788354378</t>
+          <t>-45.80902913062609,170.74200624695123</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -24560,7 +24560,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-45.80954314466945,170.74360556361</t>
+          <t>-45.809542468399,170.74360345938</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -24607,7 +24607,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-45.8095197381758,170.74353273390213</t>
+          <t>-45.80952079015403,170.7435360071461</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -24654,7 +24654,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-45.809550320647965,170.74362789183152</t>
+          <t>-45.80954938138401,170.74362496928913</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-45.80971104642042,170.74412799877092</t>
+          <t>-45.80971119670065,170.74412846638046</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -24810,7 +24810,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-45.809648191552064,170.74393242130253</t>
+          <t>-45.80964811641156,170.7439321874983</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-45.80966175440552,170.74397462297756</t>
+          <t>-45.80966171683529,170.74397450607538</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -24974,7 +24974,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-45.80980031254463,170.74440575929682</t>
+          <t>-45.809800575533075,170.74440657761622</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-45.80974497213381,170.74423356169206</t>
+          <t>-45.80974452129439,170.74423215886168</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-45.80973249890365,170.74419475006016</t>
+          <t>-45.80973212320375,170.74419358103538</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -25111,7 +25111,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-45.809776493281475,170.74433164297338</t>
+          <t>-45.8097772446785,170.74433398102676</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -25146,7 +25146,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-45.809816955945074,170.74445754723948</t>
+          <t>-45.8098180454671,170.74446093742193</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -25617,7 +25617,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-45.80967843556725,170.74402652755956</t>
+          <t>-45.80967899911961,170.74402828109325</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -25664,7 +25664,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-45.80960784103365,170.74380686852075</t>
+          <t>-45.809607728322526,170.74380651781493</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -25703,7 +25703,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-45.80964695173368,170.74392856353273</t>
+          <t>-45.809646313039316,170.74392657619683</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -25734,7 +25734,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-45.80973381385323,170.74419884164703</t>
+          <t>-45.80973490338276,170.74420223181914</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -25777,7 +25777,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-45.80973599291219,170.74420562199143</t>
+          <t>-45.80973531665256,170.74420351774654</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -25851,7 +25851,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-45.8097119856718,170.74413092133065</t>
+          <t>-45.80971164754131,170.7441298692091</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -25898,7 +25898,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-45.80976563558913,170.7442978581092</t>
+          <t>-45.80976582343857,170.74429844262232</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -25945,7 +25945,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-45.80972979386408,170.7441863330821</t>
+          <t>-45.80973043255404,170.7441883204241</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -25992,7 +25992,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-45.80973016956406,170.74418750210677</t>
+          <t>-45.80973099610396,170.74419007396114</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -26039,7 +26039,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-45.80972002566061,170.74415593844603</t>
+          <t>-45.80972025108077,170.74415663986056</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -26121,7 +26121,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-45.80972415836304,170.7441687977138</t>
+          <t>-45.809725022473366,170.74417148647004</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-45.80961674520992,170.74383457428627</t>
+          <t>-45.8096159938029,170.74383223624662</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -26254,7 +26254,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-45.80899493989412,170.74189986850354</t>
+          <t>-45.808994902321835,170.7418997516042</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-45.80897746876842,170.74184551033719</t>
+          <t>-45.808977581485436,170.7418458610349</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -26340,7 +26340,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-45.80899437630981,170.74189811501373</t>
+          <t>-45.80899388787007,170.74189659532263</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -26383,7 +26383,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-45.808948425314234,170.74175514726886</t>
+          <t>-45.80894947734226,170.74175842044428</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-45.808998847411246,170.74191202603365</t>
+          <t>-45.80899798324891,170.74190933734894</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -26477,7 +26477,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-45.809021916765424,170.74198380225667</t>
+          <t>-45.809021165321354,170.741981464268</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -26524,7 +26524,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-45.809026801150715,170.74199899918463</t>
+          <t>-45.80902665086195,170.74199853158683</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -26567,7 +26567,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-45.809285032028804,170.74280245294895</t>
+          <t>-45.80928537017125,170.742803505054</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -26645,7 +26645,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-45.80940841581975,170.74318635526356</t>
+          <t>-45.80940834067776,170.74318612146135</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -26692,7 +26692,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-45.8098177073396,170.74445988529632</t>
+          <t>-45.809818909570716,170.7444636261874</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -26723,7 +26723,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-45.80968271856452,170.7440398544168</t>
+          <t>-45.80968328211667,170.7440416079508</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -26805,7 +26805,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-45.809753162380325,170.74425904644795</t>
+          <t>-45.80975432704797,170.7442626704276</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -26891,7 +26891,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-45.80977378825177,170.74432322598173</t>
+          <t>-45.80977453964897,170.74432556403488</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-45.80971010716897,170.74412507621128</t>
+          <t>-45.809709468477934,170.7441230888708</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -26985,7 +26985,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-45.80976819034114,170.7443058074878</t>
+          <t>-45.809769242297705,170.74430908076155</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -27032,7 +27032,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-45.80973805926086,170.7442120516288</t>
+          <t>-45.8097372702914,170.7442095966763</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -27079,7 +27079,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-45.80977743252775,170.7443345655401</t>
+          <t>-45.809778221494575,170.74433702049623</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -27290,7 +27290,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-45.80963038323933,170.74387700971675</t>
+          <t>-45.809630533520576,170.7438774773249</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -27415,7 +27415,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-45.80961929999347,170.74384252362148</t>
+          <t>-45.80961918728245,170.7438421729155</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -27462,7 +27462,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-45.809555655665875,170.74364449187436</t>
+          <t>-45.80955588108913,170.7436451932847</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -27509,7 +27509,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-45.80959908713241,170.74377963037193</t>
+          <t>-45.80959852357632,170.74377787684335</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -27556,7 +27556,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-45.809750006506185,170.74424922663283</t>
+          <t>-45.809750757904865,170.74425156468396</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -27603,7 +27603,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-45.80968068977653,170.74403354169468</t>
+          <t>-45.80967971295256,170.74403050223603</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-45.80968294398537,170.7440405558304</t>
+          <t>-45.80968253071378,170.74403926990547</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-45.80971822229909,170.74415032712977</t>
+          <t>-45.80971848528933,170.7441511454467</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -27744,7 +27744,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-45.809570946866145,170.74369207088833</t>
+          <t>-45.8095705711612,170.74369090187048</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -27791,7 +27791,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-45.80964657603111,170.74392739451162</t>
+          <t>-45.80964725229573,170.74392949874962</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -27838,7 +27838,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-45.80903254969394,170.74201688480335</t>
+          <t>-45.80903187339488,170.74201478061272</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -27885,7 +27885,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-45.80898408149855,170.74186608460678</t>
+          <t>-45.80898494566188,170.74186877329012</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -27932,7 +27932,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-45.808932607310446,170.7417059327533</t>
+          <t>-45.80893317089764,170.74170768623912</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -27975,7 +27975,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-45.80897175777131,170.7418277416538</t>
+          <t>-45.80897153233715,170.74182704025847</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -28018,7 +28018,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-45.80896213924375,170.7417978154586</t>
+          <t>-45.80896191380942,170.74179711406353</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -28061,7 +28061,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-45.80948100277118,170.7434122084714</t>
+          <t>-45.80948036406803,170.7434102211476</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -28104,7 +28104,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-45.80933654228494,170.74296272377123</t>
+          <t>-45.809337406423026,170.74296541248924</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -28151,7 +28151,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-45.809581654451826,170.74372538790416</t>
+          <t>-45.80958109089494,170.7437236343767</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -28198,7 +28198,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-45.80965852336701,170.74396456939104</t>
+          <t>-45.80965938748206,170.7439672581408</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -28245,7 +28245,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-45.809608404589305,170.74380862204995</t>
+          <t>-45.80960829187818,170.7438082713441</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -28292,7 +28292,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-45.8096778344447,170.74402465712362</t>
+          <t>-45.809677308462454,170.7440230204922</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
